--- a/entrega2/databaseactualizada.xlsx
+++ b/entrega2/databaseactualizada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/camiloand_fernandez_urosario_edu_co/Documents/Camilo Trabajos U/Semestre 3/Probabilidad y Estadistica 1/Proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/camiloand_fernandez_urosario_edu_co/Documents/Camilo Trabajos U/Semestre 3/Probabilidad y Estadistica 1/Proyecto/Proyecto-Probabilidad/entrega2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E55B874F-62FE-443B-A713-AFED6A0396D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4A7D792A-8E7F-4F88-BC55-75BB366AEBA2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E55B874F-62FE-443B-A713-AFED6A0396D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{24EBD4B6-2365-4C74-BFAA-74A2A0B2F196}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{180D1F62-80D1-4786-927F-7D2A1F9C5A56}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{180D1F62-80D1-4786-927F-7D2A1F9C5A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>2005_1</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Pc</t>
-  </si>
-  <si>
-    <t>Dc</t>
   </si>
   <si>
     <t>Imu</t>
@@ -601,17 +598,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814A298-7EF4-49E1-BB23-BB01714B8072}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -634,11 +631,8 @@
       <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,22 +646,19 @@
         <v>119348.21424077044</v>
       </c>
       <c r="E2">
-        <v>13.46529710805652</v>
+        <v>641.908728</v>
       </c>
       <c r="F2">
-        <v>641.908728</v>
+        <v>439.28573599999999</v>
       </c>
       <c r="G2">
-        <v>439.28573599999999</v>
+        <v>38284.011000047001</v>
       </c>
       <c r="H2">
-        <v>38284.011000047001</v>
-      </c>
-      <c r="I2">
         <v>5.2366666666666672</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -681,22 +672,19 @@
         <v>125126.32036160388</v>
       </c>
       <c r="E3">
-        <v>11.96328090773398</v>
+        <v>720.68744000000004</v>
       </c>
       <c r="F3">
-        <v>720.68744000000004</v>
+        <v>469.55785866666662</v>
       </c>
       <c r="G3">
-        <v>469.55785866666662</v>
+        <v>38730.065999985796</v>
       </c>
       <c r="H3">
-        <v>38730.065999985796</v>
-      </c>
-      <c r="I3">
         <v>4.96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -710,22 +698,19 @@
         <v>128645.77495307969</v>
       </c>
       <c r="E4">
-        <v>11.640740300449366</v>
+        <v>771.53431833333343</v>
       </c>
       <c r="F4">
-        <v>771.53431833333343</v>
+        <v>430.23108500000006</v>
       </c>
       <c r="G4">
-        <v>430.23108500000006</v>
+        <v>39428.618999994898</v>
       </c>
       <c r="H4">
-        <v>39428.618999994898</v>
-      </c>
-      <c r="I4">
         <v>4.9366666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -739,22 +724,19 @@
         <v>141732.69044454599</v>
       </c>
       <c r="E5">
-        <v>10.165597659391526</v>
+        <v>815.66286300000002</v>
       </c>
       <c r="F5">
-        <v>815.66286300000002</v>
+        <v>481.71104166666669</v>
       </c>
       <c r="G5">
-        <v>481.71104166666669</v>
+        <v>39996.948000030403</v>
       </c>
       <c r="H5">
-        <v>39996.948000030403</v>
-      </c>
-      <c r="I5">
         <v>5.0733333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -768,22 +750,19 @@
         <v>127132.28112469544</v>
       </c>
       <c r="E6">
-        <v>12.584053617595165</v>
+        <v>765.96757500000001</v>
       </c>
       <c r="F6">
-        <v>765.96757500000001</v>
+        <v>490.62391533333334</v>
       </c>
       <c r="G6">
-        <v>490.62391533333334</v>
+        <v>40811.798999923099</v>
       </c>
       <c r="H6">
-        <v>40811.798999923099</v>
-      </c>
-      <c r="I6">
         <v>4.2866666666666662</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -797,22 +776,19 @@
         <v>131831.67141360854</v>
       </c>
       <c r="E7">
-        <v>11.500223517935261</v>
+        <v>844.05590166666661</v>
       </c>
       <c r="F7">
-        <v>844.05590166666661</v>
+        <v>537.1694296666667</v>
       </c>
       <c r="G7">
-        <v>537.1694296666667</v>
+        <v>41249.418000033002</v>
       </c>
       <c r="H7">
-        <v>41249.418000033002</v>
-      </c>
-      <c r="I7">
         <v>4.0333333333333341</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -826,22 +802,19 @@
         <v>138473.57647509291</v>
       </c>
       <c r="E8">
-        <v>12.690507090996837</v>
+        <v>839.94211899999993</v>
       </c>
       <c r="F8">
-        <v>839.94211899999993</v>
+        <v>569.78372566666667</v>
       </c>
       <c r="G8">
-        <v>569.78372566666667</v>
+        <v>41602.407000015504</v>
       </c>
       <c r="H8">
-        <v>41602.407000015504</v>
-      </c>
-      <c r="I8">
         <v>4.54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -855,22 +828,19 @@
         <v>151997.47098660312</v>
       </c>
       <c r="E9">
-        <v>11.358537601985169</v>
+        <v>638.59567633333336</v>
       </c>
       <c r="F9">
-        <v>638.59567633333336</v>
+        <v>638.62425333333329</v>
       </c>
       <c r="G9">
-        <v>638.62425333333329</v>
+        <v>42111.684000065899</v>
       </c>
       <c r="H9">
-        <v>42111.684000065899</v>
-      </c>
-      <c r="I9">
         <v>4.3266666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -884,22 +854,19 @@
         <v>135593.03714640398</v>
       </c>
       <c r="E10">
-        <v>12.882970060461785</v>
+        <v>676.98307633333332</v>
       </c>
       <c r="F10">
-        <v>676.98307633333332</v>
+        <v>638.00617666666665</v>
       </c>
       <c r="G10">
-        <v>638.00617666666665</v>
+        <v>42625.706999993599</v>
       </c>
       <c r="H10">
-        <v>42625.706999993599</v>
-      </c>
-      <c r="I10">
         <v>5.246666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -913,22 +880,19 @@
         <v>140734.41132912389</v>
       </c>
       <c r="E11">
-        <v>11.199155937518981</v>
+        <v>677.73839566666663</v>
       </c>
       <c r="F11">
-        <v>677.73839566666663</v>
+        <v>652.81523933333335</v>
       </c>
       <c r="G11">
-        <v>652.81523933333335</v>
+        <v>43147.088999974396</v>
       </c>
       <c r="H11">
-        <v>43147.088999974396</v>
-      </c>
-      <c r="I11">
         <v>6.1733333333333347</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -942,22 +906,19 @@
         <v>147975.39601032983</v>
       </c>
       <c r="E12">
-        <v>10.90905888003399</v>
+        <v>898.08059433333335</v>
       </c>
       <c r="F12">
-        <v>898.08059433333335</v>
+        <v>753.58673666666664</v>
       </c>
       <c r="G12">
-        <v>753.58673666666664</v>
+        <v>43605.008999895697</v>
       </c>
       <c r="H12">
-        <v>43605.008999895697</v>
-      </c>
-      <c r="I12">
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -971,22 +932,19 @@
         <v>162154.15551414233</v>
       </c>
       <c r="E13">
-        <v>9.7858228787439234</v>
+        <v>891.72772699999996</v>
       </c>
       <c r="F13">
-        <v>891.72772699999996</v>
+        <v>808.1508796666667</v>
       </c>
       <c r="G13">
-        <v>808.1508796666667</v>
+        <v>44044.5030000275</v>
       </c>
       <c r="H13">
-        <v>44044.5030000275</v>
-      </c>
-      <c r="I13">
         <v>5.4200000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1000,22 +958,19 @@
         <v>142466.85763797181</v>
       </c>
       <c r="E14">
-        <v>12.09634446723517</v>
+        <v>989.09579500000007</v>
       </c>
       <c r="F14">
-        <v>989.09579500000007</v>
+        <v>961.87018399999999</v>
       </c>
       <c r="G14">
-        <v>961.87018399999999</v>
+        <v>43953.117000004699</v>
       </c>
       <c r="H14">
-        <v>43953.117000004699</v>
-      </c>
-      <c r="I14">
         <v>6.0933333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1029,22 +984,19 @@
         <v>147479.82166771073</v>
       </c>
       <c r="E15">
-        <v>11.046654214599563</v>
+        <v>1204.2643916666668</v>
       </c>
       <c r="F15">
-        <v>1204.2643916666668</v>
+        <v>928.4216826666667</v>
       </c>
       <c r="G15">
-        <v>928.4216826666667</v>
+        <v>44416.832999956299</v>
       </c>
       <c r="H15">
-        <v>44416.832999956299</v>
-      </c>
-      <c r="I15">
         <v>6.4333333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1058,22 +1010,19 @@
         <v>152924.9818553034</v>
       </c>
       <c r="E16">
-        <v>11.409400112280998</v>
+        <v>1276.7086516666668</v>
       </c>
       <c r="F16">
-        <v>1276.7086516666668</v>
+        <v>1059.3414330000001</v>
       </c>
       <c r="G16">
-        <v>1059.3414330000001</v>
+        <v>44505.560999999201</v>
       </c>
       <c r="H16">
-        <v>44505.560999999201</v>
-      </c>
-      <c r="I16">
         <v>7.6533333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1087,22 +1036,19 @@
         <v>162841.33883901406</v>
       </c>
       <c r="E17">
-        <v>10.510493596994918</v>
+        <v>894.33266233333325</v>
       </c>
       <c r="F17">
-        <v>894.33266233333325</v>
+        <v>862.79018833333328</v>
       </c>
       <c r="G17">
-        <v>862.79018833333328</v>
+        <v>43678.629000020403</v>
       </c>
       <c r="H17">
-        <v>43678.629000020403</v>
-      </c>
-      <c r="I17">
         <v>7.78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1116,22 +1062,19 @@
         <v>142871.53647526138</v>
       </c>
       <c r="E18">
-        <v>12.909681145648895</v>
+        <v>727.4120773333334</v>
       </c>
       <c r="F18">
-        <v>727.4120773333334</v>
+        <v>756.36676266666666</v>
       </c>
       <c r="G18">
-        <v>756.36676266666666</v>
+        <v>43183.6409999018</v>
       </c>
       <c r="H18">
-        <v>43183.6409999018</v>
-      </c>
-      <c r="I18">
         <v>6.5966666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1145,22 +1088,19 @@
         <v>148238.14553112964</v>
       </c>
       <c r="E19">
-        <v>11.714322608849436</v>
+        <v>924.90173366666659</v>
       </c>
       <c r="F19">
-        <v>924.90173366666659</v>
+        <v>684.70881166666675</v>
       </c>
       <c r="G19">
-        <v>684.70881166666675</v>
+        <v>43058.549999984098</v>
       </c>
       <c r="H19">
-        <v>43058.549999984098</v>
-      </c>
-      <c r="I19">
         <v>4.7700000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1174,22 +1114,19 @@
         <v>153542.51990888026</v>
       </c>
       <c r="E20">
-        <v>12.177160224775903</v>
+        <v>1063.8344716666668</v>
       </c>
       <c r="F20">
-        <v>1063.8344716666668</v>
+        <v>783.04555866666669</v>
       </c>
       <c r="G20">
-        <v>783.04555866666669</v>
+        <v>43260.9359999964</v>
       </c>
       <c r="H20">
-        <v>43260.9359999964</v>
-      </c>
-      <c r="I20">
         <v>3.2066666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1203,22 +1140,19 @@
         <v>167963.79808472874</v>
       </c>
       <c r="E21">
-        <v>11.311791783122175</v>
+        <v>1058.2241756666665</v>
       </c>
       <c r="F21">
-        <v>1058.2241756666665</v>
+        <v>926.36533733333329</v>
       </c>
       <c r="G21">
-        <v>926.36533733333329</v>
+        <v>43884.062999968504</v>
       </c>
       <c r="H21">
-        <v>43884.062999968504</v>
-      </c>
-      <c r="I21">
         <v>2.3633333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1232,22 +1166,19 @@
         <v>147811.68552463484</v>
       </c>
       <c r="E22">
-        <v>13.008241597660854</v>
+        <v>1111.6903203333334</v>
       </c>
       <c r="F22">
-        <v>1111.6903203333334</v>
+        <v>1015.0380026666667</v>
       </c>
       <c r="G22">
-        <v>1015.0380026666667</v>
+        <v>44164.050000003903</v>
       </c>
       <c r="H22">
-        <v>44164.050000003903</v>
-      </c>
-      <c r="I22">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1261,22 +1192,19 @@
         <v>155186.83717420479</v>
       </c>
       <c r="E23">
-        <v>11.971060184991487</v>
+        <v>1320.0413283333335</v>
       </c>
       <c r="F23">
-        <v>1320.0413283333335</v>
+        <v>934.57523200000003</v>
       </c>
       <c r="G23">
-        <v>934.57523200000003</v>
+        <v>44778.293999973299</v>
       </c>
       <c r="H23">
-        <v>44778.293999973299</v>
-      </c>
-      <c r="I23">
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1290,22 +1218,19 @@
         <v>159996.88084263631</v>
       </c>
       <c r="E24">
-        <v>11.47335741046002</v>
+        <v>1351.9465210000001</v>
       </c>
       <c r="F24">
-        <v>1351.9465210000001</v>
+        <v>978.81624866666664</v>
       </c>
       <c r="G24">
-        <v>978.81624866666664</v>
+        <v>45239.751000029602</v>
       </c>
       <c r="H24">
-        <v>45239.751000029602</v>
-      </c>
-      <c r="I24">
         <v>2.2766666666666668</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1319,22 +1244,19 @@
         <v>177155.596458524</v>
       </c>
       <c r="E25">
-        <v>10.688396794618905</v>
+        <v>1436.0877756666669</v>
       </c>
       <c r="F25">
-        <v>1436.0877756666669</v>
+        <v>1094.1256110000002</v>
       </c>
       <c r="G25">
-        <v>1094.1256110000002</v>
+        <v>45722.528999997405</v>
       </c>
       <c r="H25">
-        <v>45722.528999997405</v>
-      </c>
-      <c r="I25">
         <v>2.6966666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1348,22 +1270,19 @@
         <v>157762.78754916365</v>
       </c>
       <c r="E26">
-        <v>12.428923691216383</v>
+        <v>1595.7432766666668</v>
       </c>
       <c r="F26">
-        <v>1595.7432766666668</v>
+        <v>1168.2662736666666</v>
       </c>
       <c r="G26">
-        <v>1168.2662736666666</v>
+        <v>45857.483999897406</v>
       </c>
       <c r="H26">
-        <v>45857.483999897406</v>
-      </c>
-      <c r="I26">
         <v>3.2533333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1377,22 +1296,19 @@
         <v>165412.01753875607</v>
       </c>
       <c r="E27">
-        <v>11.113245174405046</v>
+        <v>1962.5578896666666</v>
       </c>
       <c r="F27">
-        <v>1962.5578896666666</v>
+        <v>1163.4807433333333</v>
       </c>
       <c r="G27">
-        <v>1163.4807433333333</v>
+        <v>46488.566999970499</v>
       </c>
       <c r="H27">
-        <v>46488.566999970499</v>
-      </c>
-      <c r="I27">
         <v>3.03</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1406,22 +1322,19 @@
         <v>172652.39361992312</v>
       </c>
       <c r="E28">
-        <v>10.451698839062404</v>
+        <v>1942.9510573333334</v>
       </c>
       <c r="F28">
-        <v>1942.9510573333334</v>
+        <v>1183.027421</v>
       </c>
       <c r="G28">
-        <v>1183.027421</v>
+        <v>46775.549999925002</v>
       </c>
       <c r="H28">
-        <v>46775.549999925002</v>
-      </c>
-      <c r="I28">
         <v>3.4733333333333332</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1435,22 +1348,19 @@
         <v>188800.80129215718</v>
       </c>
       <c r="E29">
-        <v>9.3452006724744479</v>
+        <v>2203.4850303333333</v>
       </c>
       <c r="F29">
-        <v>2203.4850303333333</v>
+        <v>1263.7895746666666</v>
       </c>
       <c r="G29">
-        <v>1263.7895746666666</v>
+        <v>47389.380000027901</v>
       </c>
       <c r="H29">
-        <v>47389.380000027901</v>
-      </c>
-      <c r="I29">
         <v>3.9033333333333329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1464,22 +1374,19 @@
         <v>166996.88047309549</v>
       </c>
       <c r="E30">
-        <v>11.570133506449119</v>
+        <v>2132.3919396666665</v>
       </c>
       <c r="F30">
-        <v>2132.3919396666665</v>
+        <v>1235.7976636666667</v>
       </c>
       <c r="G30">
-        <v>1235.7976636666667</v>
+        <v>48059.273999974801</v>
       </c>
       <c r="H30">
-        <v>48059.273999974801</v>
-      </c>
-      <c r="I30">
         <v>3.4966666666666661</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1493,22 +1400,19 @@
         <v>173577.62041998119</v>
       </c>
       <c r="E31">
-        <v>10.533269754745431</v>
+        <v>2149.0332036666669</v>
       </c>
       <c r="F31">
-        <v>2149.0332036666669</v>
+        <v>1311.6976063333334</v>
       </c>
       <c r="G31">
-        <v>1311.6976063333334</v>
+        <v>48456.7709999488</v>
       </c>
       <c r="H31">
-        <v>48456.7709999488</v>
-      </c>
-      <c r="I31">
         <v>3.3566666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1522,22 +1426,19 @@
         <v>176900.49539803842</v>
       </c>
       <c r="E32">
-        <v>10.184508692210606</v>
+        <v>1995.5191473333332</v>
       </c>
       <c r="F32">
-        <v>1995.5191473333332</v>
+        <v>1423.9774786666667</v>
       </c>
       <c r="G32">
-        <v>1423.9774786666667</v>
+        <v>48771.452999989102</v>
       </c>
       <c r="H32">
-        <v>48771.452999989102</v>
-      </c>
-      <c r="I32">
         <v>3.0733333333333328</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1551,22 +1452,19 @@
         <v>193940.00370888491</v>
       </c>
       <c r="E33">
-        <v>9.2173569034973521</v>
+        <v>1930.2782643333333</v>
       </c>
       <c r="F33">
-        <v>1930.2782643333333</v>
+        <v>1480.7948269999999</v>
       </c>
       <c r="G33">
-        <v>1480.7948269999999</v>
+        <v>49076.589000023203</v>
       </c>
       <c r="H33">
-        <v>49076.589000023203</v>
-      </c>
-      <c r="I33">
         <v>2.7566666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1580,22 +1478,19 @@
         <v>171244.7502044444</v>
       </c>
       <c r="E34">
-        <v>11.3550984906488</v>
+        <v>1844.243252</v>
       </c>
       <c r="F34">
-        <v>1844.243252</v>
+        <v>1494.2785219999998</v>
       </c>
       <c r="G34">
-        <v>1494.2785219999998</v>
+        <v>49708.772999877096</v>
       </c>
       <c r="H34">
-        <v>49708.772999877096</v>
-      </c>
-      <c r="I34">
         <v>1.9133333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1609,22 +1504,19 @@
         <v>183008.77049865527</v>
       </c>
       <c r="E35">
-        <v>9.6104970573637019</v>
+        <v>1946.8597806666667</v>
       </c>
       <c r="F35">
-        <v>1946.8597806666667</v>
+        <v>1428.9788856666667</v>
       </c>
       <c r="G35">
-        <v>1428.9788856666667</v>
+        <v>49913.777999989099</v>
       </c>
       <c r="H35">
-        <v>49913.777999989099</v>
-      </c>
-      <c r="I35">
         <v>2.06</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1638,22 +1530,19 @@
         <v>187401.36404294043</v>
       </c>
       <c r="E36">
-        <v>9.3763238406934164</v>
+        <v>1866.0303496666668</v>
       </c>
       <c r="F36">
-        <v>1866.0303496666668</v>
+        <v>1530.5940199999998</v>
       </c>
       <c r="G36">
-        <v>1530.5940199999998</v>
+        <v>50546.244000047096</v>
       </c>
       <c r="H36">
-        <v>50546.244000047096</v>
-      </c>
-      <c r="I36">
         <v>2.2533333333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1667,22 +1556,19 @@
         <v>206284.11525395993</v>
       </c>
       <c r="E37">
-        <v>8.2381242566310888</v>
+        <v>1551.6088333333335</v>
       </c>
       <c r="F37">
-        <v>1551.6088333333335</v>
+        <v>1669.8260446666666</v>
       </c>
       <c r="G37">
-        <v>1669.8260446666666</v>
+        <v>51249.410999937798</v>
       </c>
       <c r="H37">
-        <v>51249.410999937798</v>
-      </c>
-      <c r="I37">
         <v>1.8466666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1696,22 +1582,19 @@
         <v>182282.85572104307</v>
       </c>
       <c r="E38">
-        <v>10.504898363058613</v>
+        <v>1705.603969</v>
       </c>
       <c r="F38">
-        <v>1705.603969</v>
+        <v>1600.4575333333335</v>
       </c>
       <c r="G38">
-        <v>1600.4575333333335</v>
+        <v>51313.665000074099</v>
       </c>
       <c r="H38">
-        <v>51313.665000074099</v>
-      </c>
-      <c r="I38">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1725,22 +1608,19 @@
         <v>189638.37946240322</v>
       </c>
       <c r="E39">
-        <v>8.9859511708619273</v>
+        <v>1408.0086693333333</v>
       </c>
       <c r="F39">
-        <v>1408.0086693333333</v>
+        <v>1692.6056823333331</v>
       </c>
       <c r="G39">
-        <v>1692.6056823333331</v>
+        <v>52298.727000078099</v>
       </c>
       <c r="H39">
-        <v>52298.727000078099</v>
-      </c>
-      <c r="I39">
         <v>2.8133333333333339</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1754,22 +1634,19 @@
         <v>195558.67375589258</v>
       </c>
       <c r="E40">
-        <v>8.8470437953736916</v>
+        <v>1477.4644430000001</v>
       </c>
       <c r="F40">
-        <v>1477.4644430000001</v>
+        <v>1639.289066</v>
       </c>
       <c r="G40">
-        <v>1639.289066</v>
+        <v>53164.971000022902</v>
       </c>
       <c r="H40">
-        <v>53164.971000022902</v>
-      </c>
-      <c r="I40">
         <v>2.9233333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1783,22 +1660,19 @@
         <v>214109.09106066119</v>
       </c>
       <c r="E41">
-        <v>8.0977307157555298</v>
+        <v>1514.2284906666666</v>
       </c>
       <c r="F41">
-        <v>1514.2284906666666</v>
+        <v>1756.5150223333333</v>
       </c>
       <c r="G41">
-        <v>1756.5150223333333</v>
+        <v>53549.735999937708</v>
       </c>
       <c r="H41">
-        <v>53549.735999937708</v>
-      </c>
-      <c r="I41">
         <v>3.5333333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1812,22 +1686,19 @@
         <v>187841.99665840552</v>
       </c>
       <c r="E42">
-        <v>9.8340257908483277</v>
+        <v>1219.478433</v>
       </c>
       <c r="F42">
-        <v>1219.478433</v>
+        <v>1357.2742206666667</v>
       </c>
       <c r="G42">
-        <v>1357.2742206666667</v>
+        <v>54010.196999910404</v>
       </c>
       <c r="H42">
-        <v>54010.196999910404</v>
-      </c>
-      <c r="I42">
         <v>4.246666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1841,22 +1712,19 @@
         <v>195888.91740175121</v>
       </c>
       <c r="E43">
-        <v>8.8945297761499145</v>
+        <v>1359.6785540000001</v>
       </c>
       <c r="F43">
-        <v>1359.6785540000001</v>
+        <v>1425.1846286666666</v>
       </c>
       <c r="G43">
-        <v>1425.1846286666666</v>
+        <v>54670.730999971202</v>
       </c>
       <c r="H43">
-        <v>54670.730999971202</v>
-      </c>
-      <c r="I43">
         <v>4.4899999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1870,22 +1738,19 @@
         <v>202886.98101223414</v>
       </c>
       <c r="E44">
-        <v>8.971375396315354</v>
+        <v>1138.3903223333334</v>
       </c>
       <c r="F44">
-        <v>1138.3903223333334</v>
+        <v>1326.1274586666666</v>
       </c>
       <c r="G44">
-        <v>1326.1274586666666</v>
+        <v>55042.274999950605</v>
       </c>
       <c r="H44">
-        <v>55042.274999950605</v>
-      </c>
-      <c r="I44">
         <v>4.8500000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1899,22 +1764,19 @@
         <v>218074.10492760915</v>
       </c>
       <c r="E45">
-        <v>8.014970827520612</v>
+        <v>975.38701666666657</v>
       </c>
       <c r="F45">
-        <v>975.38701666666657</v>
+        <v>1325.4752293333333</v>
       </c>
       <c r="G45">
-        <v>1325.4752293333333</v>
+        <v>55136.408999921499</v>
       </c>
       <c r="H45">
-        <v>55136.408999921499</v>
-      </c>
-      <c r="I45">
         <v>6.3500000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1928,22 +1790,19 @@
         <v>191782.13832631495</v>
       </c>
       <c r="E46">
-        <v>10.681753892433463</v>
+        <v>996.0230489999999</v>
       </c>
       <c r="F46">
-        <v>996.0230489999999</v>
+        <v>1036.6669890000001</v>
       </c>
       <c r="G46">
-        <v>1036.6669890000001</v>
+        <v>55410.467999963097</v>
       </c>
       <c r="H46">
-        <v>55410.467999963097</v>
-      </c>
-      <c r="I46">
         <v>7.6733333333333329</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1957,22 +1816,19 @@
         <v>199892.39909796359</v>
       </c>
       <c r="E47">
-        <v>8.9154712165460293</v>
+        <v>1197.3580856666667</v>
       </c>
       <c r="F47">
-        <v>1197.3580856666667</v>
+        <v>1043.7292863333334</v>
       </c>
       <c r="G47">
-        <v>1043.7292863333334</v>
+        <v>55968.621000078303</v>
       </c>
       <c r="H47">
-        <v>55968.621000078303</v>
-      </c>
-      <c r="I47">
         <v>8.2433333333333323</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1986,22 +1842,19 @@
         <v>205900.37219315331</v>
       </c>
       <c r="E48">
-        <v>9.1138707212161112</v>
+        <v>1266.0582180000001</v>
       </c>
       <c r="F48">
-        <v>1266.0582180000001</v>
+        <v>1154.4337330000001</v>
       </c>
       <c r="G48">
-        <v>1154.4337330000001</v>
+        <v>56464.076999978199</v>
       </c>
       <c r="H48">
-        <v>56464.076999978199</v>
-      </c>
-      <c r="I48">
         <v>8.1133333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2015,22 +1868,19 @@
         <v>223914.09038256816</v>
       </c>
       <c r="E49">
-        <v>8.1821666191493581</v>
+        <v>1139.969304</v>
       </c>
       <c r="F49">
-        <v>1139.969304</v>
+        <v>1114.2653513333332</v>
       </c>
       <c r="G49">
-        <v>1114.2653513333332</v>
+        <v>57097.739999986195</v>
       </c>
       <c r="H49">
-        <v>57097.739999986195</v>
-      </c>
-      <c r="I49">
         <v>6.0633333333333335</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2044,22 +1894,19 @@
         <v>193740.59653470648</v>
       </c>
       <c r="E50">
-        <v>10.647389699344794</v>
+        <v>1141.2628216666669</v>
       </c>
       <c r="F50">
-        <v>1141.2628216666669</v>
+        <v>1274.2516806666665</v>
       </c>
       <c r="G50">
-        <v>1274.2516806666665</v>
+        <v>57712.3049999629</v>
       </c>
       <c r="H50">
-        <v>57712.3049999629</v>
-      </c>
-      <c r="I50">
         <v>5.1133333333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2073,22 +1920,19 @@
         <v>202490.25456262982</v>
       </c>
       <c r="E51">
-        <v>9.0134136800816833</v>
+        <v>1153.4175786666667</v>
       </c>
       <c r="F51">
-        <v>1153.4175786666667</v>
+        <v>1038.5696006666667</v>
       </c>
       <c r="G51">
-        <v>1038.5696006666667</v>
+        <v>58137.695999939999</v>
       </c>
       <c r="H51">
-        <v>58137.695999939999</v>
-      </c>
-      <c r="I51">
         <v>4.34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2102,22 +1946,19 @@
         <v>209366.66421509537</v>
       </c>
       <c r="E52">
-        <v>9.3335058036106417</v>
+        <v>1120.3722316666665</v>
       </c>
       <c r="F52">
-        <v>1120.3722316666665</v>
+        <v>1014.530557</v>
       </c>
       <c r="G52">
-        <v>1014.530557</v>
+        <v>58851.863999995301</v>
       </c>
       <c r="H52">
-        <v>58851.863999995301</v>
-      </c>
-      <c r="I52">
         <v>3.7466666666666666</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2131,22 +1972,19 @@
         <v>227058.48468756833</v>
       </c>
       <c r="E53">
-        <v>8.5178462918203</v>
+        <v>1102.3341873333334</v>
       </c>
       <c r="F53">
-        <v>1102.3341873333334</v>
+        <v>1130.620983</v>
       </c>
       <c r="G53">
-        <v>1130.620983</v>
+        <v>59813.888999927804</v>
       </c>
       <c r="H53">
-        <v>59813.888999927804</v>
-      </c>
-      <c r="I53">
         <v>4.0866666666666669</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2160,22 +1998,19 @@
         <v>197176.58134961972</v>
       </c>
       <c r="E54">
-        <v>10.667177920804912</v>
+        <v>1309.4113816666666</v>
       </c>
       <c r="F54">
-        <v>1309.4113816666666</v>
+        <v>1069.4378596666666</v>
       </c>
       <c r="G54">
-        <v>1069.4378596666666</v>
+        <v>60726.644999989992</v>
       </c>
       <c r="H54">
-        <v>60726.644999989992</v>
-      </c>
-      <c r="I54">
         <v>3.3966666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2189,22 +2024,19 @@
         <v>208084.23827760434</v>
       </c>
       <c r="E55">
-        <v>9.4248819862840509</v>
+        <v>1084.019853</v>
       </c>
       <c r="F55">
-        <v>1084.019853</v>
+        <v>1270.6536903333333</v>
       </c>
       <c r="G55">
-        <v>1270.6536903333333</v>
+        <v>61657.959000060291</v>
       </c>
       <c r="H55">
-        <v>61657.959000060291</v>
-      </c>
-      <c r="I55">
         <v>3.1633333333333336</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2218,22 +2050,19 @@
         <v>215046.21286935752</v>
       </c>
       <c r="E56">
-        <v>9.4530886395761602</v>
+        <v>1088.512755</v>
       </c>
       <c r="F56">
-        <v>1088.512755</v>
+        <v>1268.038982</v>
       </c>
       <c r="G56">
-        <v>1268.038982</v>
+        <v>62228.168999998699</v>
       </c>
       <c r="H56">
-        <v>62228.168999998699</v>
-      </c>
-      <c r="I56">
         <v>3.15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2247,22 +2076,19 @@
         <v>233292.96750341833</v>
       </c>
       <c r="E57">
-        <v>9.1802117257755977</v>
+        <v>1102.264379</v>
       </c>
       <c r="F57">
-        <v>1102.264379</v>
+        <v>1429.8281853333331</v>
       </c>
       <c r="G57">
-        <v>1429.8281853333331</v>
+        <v>62729.5590000128</v>
       </c>
       <c r="H57">
-        <v>62729.5590000128</v>
-      </c>
-      <c r="I57">
         <v>3.2600000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2276,22 +2102,19 @@
         <v>203021.42808284517</v>
       </c>
       <c r="E58">
-        <v>11.793474411850232</v>
+        <v>1179.9698660000001</v>
       </c>
       <c r="F58">
-        <v>1179.9698660000001</v>
+        <v>1231.1129203333332</v>
       </c>
       <c r="G58">
-        <v>1231.1129203333332</v>
+        <v>63345.927000001408</v>
       </c>
       <c r="H58">
-        <v>63345.927000001408</v>
-      </c>
-      <c r="I58">
         <v>3.1233333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2305,22 +2128,19 @@
         <v>214490.6939274953</v>
       </c>
       <c r="E59">
-        <v>10.103026510862598</v>
+        <v>1396.461583333333</v>
       </c>
       <c r="F59">
-        <v>1396.461583333333</v>
+        <v>1265.0159816666667</v>
       </c>
       <c r="G59">
-        <v>1265.0159816666667</v>
+        <v>63989.6309999558</v>
       </c>
       <c r="H59">
-        <v>63989.6309999558</v>
-      </c>
-      <c r="I59">
         <v>3.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2334,22 +2154,19 @@
         <v>222545.87120284169</v>
       </c>
       <c r="E60">
-        <v>10.578705255664966</v>
+        <v>1118.7254343333334</v>
       </c>
       <c r="F60">
-        <v>1118.7254343333334</v>
+        <v>1136.0549416666665</v>
       </c>
       <c r="G60">
-        <v>1136.0549416666665</v>
+        <v>64620.975000022197</v>
       </c>
       <c r="H60">
-        <v>64620.975000022197</v>
-      </c>
-      <c r="I60">
         <v>3.7866666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2363,22 +2180,19 @@
         <v>241371.21655283868</v>
       </c>
       <c r="E61">
-        <v>9.5414408831297841</v>
+        <v>1026.9270453333331</v>
       </c>
       <c r="F61">
-        <v>1026.9270453333331</v>
+        <v>1283.3083533333333</v>
       </c>
       <c r="G61">
-        <v>1283.3083533333333</v>
+        <v>65242.181999938795</v>
       </c>
       <c r="H61">
-        <v>65242.181999938795</v>
-      </c>
-      <c r="I61">
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2392,22 +2206,19 @@
         <v>205500.29788914035</v>
       </c>
       <c r="E62">
-        <v>12.592455674769559</v>
+        <v>1026.3341943333335</v>
       </c>
       <c r="F62">
-        <v>1026.3341943333335</v>
+        <v>1357.3628963333333</v>
       </c>
       <c r="G62">
-        <v>1357.3628963333333</v>
+        <v>64683.416999963796</v>
       </c>
       <c r="H62">
-        <v>64683.416999963796</v>
-      </c>
-      <c r="I62">
         <v>3.7333333333333329</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2421,22 +2232,19 @@
         <v>180494.32810719276</v>
       </c>
       <c r="E63">
-        <v>20.334270249933372</v>
+        <v>714.16692866666665</v>
       </c>
       <c r="F63">
-        <v>714.16692866666665</v>
+        <v>745.86812166666675</v>
       </c>
       <c r="G63">
-        <v>745.86812166666675</v>
+        <v>58560.341999971999</v>
       </c>
       <c r="H63">
-        <v>58560.341999971999</v>
-      </c>
-      <c r="I63">
         <v>2.85</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2450,18 +2258,15 @@
         <v>202513.51457484</v>
       </c>
       <c r="E64">
-        <v>17.583946722142869</v>
+        <v>934.79442066666672</v>
       </c>
       <c r="F64">
-        <v>934.79442066666672</v>
+        <v>862.30346966666673</v>
       </c>
       <c r="G64">
-        <v>862.30346966666673</v>
+        <v>63510.756000042107</v>
       </c>
       <c r="H64">
-        <v>63510.756000042107</v>
-      </c>
-      <c r="I64">
         <v>1.9399999999999997</v>
       </c>
     </row>
